--- a/bin/xlsx/法宝表.xlsx
+++ b/bin/xlsx/法宝表.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\xiuxian\dbc\xlsx\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\project\paladin\bin\xlsx\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -28,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="65" uniqueCount="35">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="183" uniqueCount="36">
   <si>
     <t>INT</t>
   </si>
@@ -65,10 +65,6 @@
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
-    <t>武器</t>
-    <phoneticPr fontId="2" type="noConversion"/>
-  </si>
-  <si>
     <t>INT</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
@@ -158,6 +154,14 @@
   </si>
   <si>
     <t>伤害</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>金</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>NULL</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -605,9 +609,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:J5"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="4" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="G5" sqref="G5"/>
+      <selection pane="bottomLeft" activeCell="H5" sqref="H5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
@@ -637,25 +641,25 @@
         <v>0</v>
       </c>
       <c r="D1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="E1" t="s">
         <v>0</v>
       </c>
       <c r="F1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="G1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="H1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="I1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
@@ -666,28 +670,28 @@
         <v>3</v>
       </c>
       <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
         <v>13</v>
       </c>
-      <c r="D2" t="s">
-        <v>12</v>
-      </c>
-      <c r="E2" t="s">
-        <v>14</v>
-      </c>
       <c r="F2" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="G2" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="H2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="I2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="J2" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -698,39 +702,39 @@
         <v>5</v>
       </c>
       <c r="C3" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D3" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="E3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="F3" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="G3" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="H3" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
         <v>28</v>
-      </c>
-      <c r="J3" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="H4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
         <v>30</v>
-      </c>
-      <c r="J4" t="s">
-        <v>31</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
@@ -738,28 +742,31 @@
         <v>10000003</v>
       </c>
       <c r="B5" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="C5" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="D5">
         <v>5</v>
       </c>
+      <c r="E5">
+        <v>10</v>
+      </c>
       <c r="F5" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="G5" s="2">
         <v>10</v>
       </c>
       <c r="H5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="I5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="J5" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
   </sheetData>
@@ -771,12 +778,122 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FF3F39A5-73C6-4551-90F5-F588A2A11B54}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F19" sqref="F19"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
@@ -784,15 +901,129 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6631996-53A1-4A5B-B0B3-C45ECD593241}">
-  <dimension ref="A5:R5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="J6" sqref="J6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="3" max="3" width="12.59765625" customWidth="1"/>
+    <col min="4" max="4" width="14.6640625" customWidth="1"/>
+    <col min="5" max="5" width="21" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="6.6640625" customWidth="1"/>
+    <col min="8" max="10" width="10.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>13000001</v>
       </c>
@@ -809,43 +1040,19 @@
         <v>1000</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
+        <v>34</v>
+      </c>
+      <c r="G5">
+        <v>1000</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <v>1000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -856,15 +1063,125 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{89A28738-A37C-4BFE-8B9C-ADF141B08F23}">
-  <dimension ref="A5:R5"/>
+  <dimension ref="A1:J5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="I8" sqref="I8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="8" max="10" width="10.06640625" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="5" spans="1:18" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5">
         <v>10000002</v>
       </c>
@@ -881,43 +1198,19 @@
         <v>3000</v>
       </c>
       <c r="F5" t="s">
-        <v>10</v>
-      </c>
-      <c r="G5" t="s">
-        <v>17</v>
+        <v>23</v>
+      </c>
+      <c r="G5">
+        <v>3000</v>
       </c>
       <c r="H5" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="I5" t="s">
-        <v>17</v>
-      </c>
-      <c r="J5">
-        <v>2000</v>
-      </c>
-      <c r="K5" t="s">
-        <v>17</v>
-      </c>
-      <c r="L5" t="s">
-        <v>17</v>
-      </c>
-      <c r="M5" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5">
-        <v>5</v>
-      </c>
-      <c r="O5" t="s">
-        <v>17</v>
-      </c>
-      <c r="P5" t="s">
-        <v>17</v>
-      </c>
-      <c r="Q5" t="s">
-        <v>17</v>
-      </c>
-      <c r="R5" t="s">
-        <v>17</v>
+        <v>16</v>
+      </c>
+      <c r="J5" t="s">
+        <v>35</v>
       </c>
     </row>
   </sheetData>
@@ -928,12 +1221,122 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D2B1538E-49CF-4D64-9F5B-8C9CA6D69112}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:J4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D1" t="s">
+        <v>10</v>
+      </c>
+      <c r="E1" t="s">
+        <v>0</v>
+      </c>
+      <c r="F1" t="s">
+        <v>10</v>
+      </c>
+      <c r="G1" t="s">
+        <v>10</v>
+      </c>
+      <c r="H1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I1" t="s">
+        <v>10</v>
+      </c>
+      <c r="J1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>3</v>
+      </c>
+      <c r="C2" t="s">
+        <v>12</v>
+      </c>
+      <c r="D2" t="s">
+        <v>11</v>
+      </c>
+      <c r="E2" t="s">
+        <v>13</v>
+      </c>
+      <c r="F2" t="s">
+        <v>21</v>
+      </c>
+      <c r="G2" t="s">
+        <v>32</v>
+      </c>
+      <c r="H2" t="s">
+        <v>24</v>
+      </c>
+      <c r="I2" t="s">
+        <v>24</v>
+      </c>
+      <c r="J2" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>4</v>
+      </c>
+      <c r="B3" t="s">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>18</v>
+      </c>
+      <c r="D3" t="s">
+        <v>15</v>
+      </c>
+      <c r="E3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" t="s">
+        <v>22</v>
+      </c>
+      <c r="G3" t="s">
+        <v>33</v>
+      </c>
+      <c r="H3" t="s">
+        <v>25</v>
+      </c>
+      <c r="I3" t="s">
+        <v>27</v>
+      </c>
+      <c r="J3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="H4" t="s">
+        <v>26</v>
+      </c>
+      <c r="I4" t="s">
+        <v>29</v>
+      </c>
+      <c r="J4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+  </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
